--- a/biology/Botanique/Adoxa_moschatellina/Adoxa_moschatellina.xlsx
+++ b/biology/Botanique/Adoxa_moschatellina/Adoxa_moschatellina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adoxe musquée, Moscatelline, Muscatelle
 Adoxa moschatellina, la Moscatelline, l’Adoxe musquée ou la Muscatelle, est une plante herbacée vivace de la famille des Adoxacées.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante rhizomateuse, glabre, formant de vastes colonies dans les sous-bois humides. Les feuilles basales sont longuement pétiolées, doublement ramifiées, à lobes ovales. Les hampes florales sont grêles, ne dépassant pas 20 cm au maximum, elles portent une paire de feuilles caulinaires aux segments trilobés, et à leur sommet une petite inflorescence cubique formée de cinq fleurs verdâtres (une vers le haut à 4 pétales, les quatre autres à angle droit à 5 pétales).
-Cette petite plante dégage une odeur musquée très caractéristique, d'où le nom de moscatelline[1]. Elle est courante dans les sous-bois frais en Europe tempérée. Sa floraison précoce (avril) et ses couleurs peu contrastées font qu'elle passe souvent inaperçue, d'où son nom (du Grec adoxa : privée de gloire, méconnue) ; ses organes aériens disparaissent dès juin.
+Cette petite plante dégage une odeur musquée très caractéristique, d'où le nom de moscatelline. Elle est courante dans les sous-bois frais en Europe tempérée. Sa floraison précoce (avril) et ses couleurs peu contrastées font qu'elle passe souvent inaperçue, d'où son nom (du Grec adoxa : privée de gloire, méconnue) ; ses organes aériens disparaissent dès juin.
 			Feuillage
 			Fleur supérieure à 4 pétales
 			Fleur latérale à 5 pétales
@@ -547,9 +561,11 @@
           <t>Noms</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adoxa moschatellina est connu sous plusieurs noms vernaculaires en français : Tela Botanica recommande « Adoxe musquée », « Moscatelline » et « Adoxe », VASCAN recommande quant à elle « Moscatelline », finalement Info Flora recommande Muscatelle[2],[3],[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adoxa moschatellina est connu sous plusieurs noms vernaculaires en français : Tela Botanica recommande « Adoxe musquée », « Moscatelline » et « Adoxe », VASCAN recommande quant à elle « Moscatelline », finalement Info Flora recommande Muscatelle
 </t>
         </is>
       </c>
